--- a/PolitoCliDyn_1stOrderCC/PolitoCliDyn_OutData/FFEFitParameterTable_PartIII.xlsx
+++ b/PolitoCliDyn_1stOrderCC/PolitoCliDyn_OutData/FFEFitParameterTable_PartIII.xlsx
@@ -270,19 +270,19 @@
         <v>1.6775688167309442</v>
       </c>
       <c r="D5" s="0">
-        <v>0.028522220857648103</v>
+        <v>0.028522220857648019</v>
       </c>
       <c r="E5" s="0">
         <v>1.0823675156097736</v>
       </c>
       <c r="F5" s="0">
-        <v>0.012502107269443476</v>
+        <v>0.012502107269443483</v>
       </c>
       <c r="G5" s="0">
         <v>2.5280688889323333</v>
       </c>
       <c r="H5" s="0">
-        <v>0.033649298336102133</v>
+        <v>0.033649298336102022</v>
       </c>
     </row>
     <row r="6">
@@ -296,19 +296,19 @@
         <v>29.753569518754883</v>
       </c>
       <c r="D6" s="0">
-        <v>0.5519062207266362</v>
+        <v>0.5519062207266342</v>
       </c>
       <c r="E6" s="0">
         <v>26.32637336061574</v>
       </c>
       <c r="F6" s="0">
-        <v>0.35339846538332909</v>
+        <v>0.35339846538332942</v>
       </c>
       <c r="G6" s="0">
         <v>45.768725643815294</v>
       </c>
       <c r="H6" s="0">
-        <v>0.79599397968277963</v>
+        <v>0.7959939796827773</v>
       </c>
     </row>
     <row r="7">
@@ -322,19 +322,19 @@
         <v>2015.1774441828434</v>
       </c>
       <c r="D7" s="0">
-        <v>0.45455901225260331</v>
+        <v>0.45455901225260298</v>
       </c>
       <c r="E7" s="0">
         <v>2029.2441816542419</v>
       </c>
       <c r="F7" s="0">
-        <v>0.19833604237854741</v>
+        <v>0.19833604237854732</v>
       </c>
       <c r="G7" s="0">
         <v>2056.6437698036698</v>
       </c>
       <c r="H7" s="0">
-        <v>0.49141538863493678</v>
+        <v>0.49141538863493539</v>
       </c>
     </row>
     <row r="8">
@@ -394,7 +394,7 @@
         <v>-0.0038724151989575351</v>
       </c>
       <c r="F10" s="0">
-        <v>0.041329062407715077</v>
+        <v>0.04132906240771507</v>
       </c>
       <c r="G10" s="0">
         <v>-0.0072284352643525729</v>
@@ -414,13 +414,13 @@
         <v>-0.22540805754842097</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584918</v>
+        <v>0.23290259235584826</v>
       </c>
       <c r="E11" s="0">
         <v>-0.14650724788154434</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134081</v>
+        <v>0.11320617940134112</v>
       </c>
       <c r="G11" s="0">
         <v>0.1783406861396486</v>
@@ -642,19 +642,19 @@
         <v>1.670186071988129</v>
       </c>
       <c r="D5" s="0">
-        <v>0.029268270443908815</v>
+        <v>0.029268270443908749</v>
       </c>
       <c r="E5" s="0">
         <v>1.0788099722598963</v>
       </c>
       <c r="F5" s="0">
-        <v>0.012742576240036838</v>
+        <v>0.012742576240036859</v>
       </c>
       <c r="G5" s="0">
         <v>2.5737659402970863</v>
       </c>
       <c r="H5" s="0">
-        <v>0.033771160852998777</v>
+        <v>0.033771160852998791</v>
       </c>
     </row>
     <row r="6">
@@ -668,19 +668,19 @@
         <v>29.981826045225866</v>
       </c>
       <c r="D6" s="0">
-        <v>0.57912601871691516</v>
+        <v>0.5791260187169136</v>
       </c>
       <c r="E6" s="0">
         <v>26.449332182069917</v>
       </c>
       <c r="F6" s="0">
-        <v>0.36414321078698209</v>
+        <v>0.36414321078698281</v>
       </c>
       <c r="G6" s="0">
         <v>44.628727660260743</v>
       </c>
       <c r="H6" s="0">
-        <v>0.76122026328958292</v>
+        <v>0.76122026328958314</v>
       </c>
     </row>
     <row r="7">
@@ -694,19 +694,19 @@
         <v>2015.0024684932205</v>
       </c>
       <c r="D7" s="0">
-        <v>0.47688729089976639</v>
+        <v>0.47688729089976573</v>
       </c>
       <c r="E7" s="0">
         <v>2029.2187562697245</v>
       </c>
       <c r="F7" s="0">
-        <v>0.20265757175542926</v>
+        <v>0.20265757175542928</v>
       </c>
       <c r="G7" s="0">
         <v>2056.2941675472093</v>
       </c>
       <c r="H7" s="0">
-        <v>0.45880320192151408</v>
+        <v>0.45880320192151441</v>
       </c>
     </row>
     <row r="8">
@@ -786,13 +786,13 @@
         <v>-0.20798440619888936</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584918</v>
+        <v>0.23290259235584826</v>
       </c>
       <c r="E11" s="0">
         <v>-0.13599924644251615</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134081</v>
+        <v>0.11320617940134112</v>
       </c>
       <c r="G11" s="0">
         <v>0.1614628695340059</v>
@@ -1014,19 +1014,19 @@
         <v>1.6567012799155236</v>
       </c>
       <c r="D5" s="0">
-        <v>0.029105673897303116</v>
+        <v>0.029105673897303144</v>
       </c>
       <c r="E5" s="0">
         <v>1.0720861762377445</v>
       </c>
       <c r="F5" s="0">
-        <v>0.012526991651321196</v>
+        <v>0.012526991651321267</v>
       </c>
       <c r="G5" s="0">
         <v>2.5981844023847529</v>
       </c>
       <c r="H5" s="0">
-        <v>0.036782710173576261</v>
+        <v>0.036782710173576184</v>
       </c>
     </row>
     <row r="6">
@@ -1040,19 +1040,19 @@
         <v>30.427986294139878</v>
       </c>
       <c r="D6" s="0">
-        <v>0.60043341494115965</v>
+        <v>0.60043341494116131</v>
       </c>
       <c r="E6" s="0">
         <v>26.687356469323998</v>
       </c>
       <c r="F6" s="0">
-        <v>0.36549624256830576</v>
+        <v>0.36549624256830759</v>
       </c>
       <c r="G6" s="0">
         <v>44.038493109225271</v>
       </c>
       <c r="H6" s="0">
-        <v>0.81242230077284883</v>
+        <v>0.81242230077284716</v>
       </c>
     </row>
     <row r="7">
@@ -1066,19 +1066,19 @@
         <v>2014.6392024223624</v>
       </c>
       <c r="D7" s="0">
-        <v>0.49689730020051276</v>
+        <v>0.49689730020051409</v>
       </c>
       <c r="E7" s="0">
         <v>2029.1636457037603</v>
       </c>
       <c r="F7" s="0">
-        <v>0.20109580571009944</v>
+        <v>0.20109580571009938</v>
       </c>
       <c r="G7" s="0">
         <v>2056.1212040785877</v>
       </c>
       <c r="H7" s="0">
-        <v>0.47087499956791734</v>
+        <v>0.47087499956791645</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>0.0044127993635194596</v>
       </c>
       <c r="F10" s="0">
-        <v>0.041120113275488937</v>
+        <v>0.04112011327548893</v>
       </c>
       <c r="G10" s="0">
         <v>-0.039257305168509227</v>
@@ -1158,13 +1158,13 @@
         <v>-0.17865706816171212</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584918</v>
+        <v>0.23290259235584826</v>
       </c>
       <c r="E11" s="0">
         <v>-0.11762399515143329</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134081</v>
+        <v>0.11320617940134112</v>
       </c>
       <c r="G11" s="0">
         <v>0.14506127748987296</v>
@@ -1386,7 +1386,7 @@
         <v>1.632959364017557</v>
       </c>
       <c r="D5" s="0">
-        <v>0.026424898295746752</v>
+        <v>0.026424898295746731</v>
       </c>
       <c r="E5" s="0">
         <v>1.0604009063463966</v>
@@ -1398,7 +1398,7 @@
         <v>2.6290941731568678</v>
       </c>
       <c r="H5" s="0">
-        <v>0.040083567926587078</v>
+        <v>0.040083567926587335</v>
       </c>
     </row>
     <row r="6">
@@ -1412,7 +1412,7 @@
         <v>31.327974850527255</v>
       </c>
       <c r="D6" s="0">
-        <v>0.59084347081462019</v>
+        <v>0.59084347081461996</v>
       </c>
       <c r="E6" s="0">
         <v>27.169901067284037</v>
@@ -1424,7 +1424,7 @@
         <v>43.310378962522968</v>
       </c>
       <c r="H6" s="0">
-        <v>0.86317459836534838</v>
+        <v>0.86317459836535382</v>
       </c>
     </row>
     <row r="7">
@@ -1438,19 +1438,19 @@
         <v>2013.8908836775117</v>
       </c>
       <c r="D7" s="0">
-        <v>0.49863060022636574</v>
+        <v>0.49863060022636568</v>
       </c>
       <c r="E7" s="0">
         <v>2029.0979548571927</v>
       </c>
       <c r="F7" s="0">
-        <v>0.18165881933793646</v>
+        <v>0.18165881933793651</v>
       </c>
       <c r="G7" s="0">
         <v>2055.9174509084032</v>
       </c>
       <c r="H7" s="0">
-        <v>0.47592765817226523</v>
+        <v>0.47592765817226707</v>
       </c>
     </row>
     <row r="8">
@@ -1530,13 +1530,13 @@
         <v>-0.03423532391322226</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584918</v>
+        <v>0.23290259235584826</v>
       </c>
       <c r="E11" s="0">
         <v>0.047400006526856941</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134081</v>
+        <v>0.11320617940134112</v>
       </c>
       <c r="G11" s="0">
         <v>0.12520841646494318</v>
@@ -1758,7 +1758,7 @@
         <v>1.6046715934503903</v>
       </c>
       <c r="D5" s="0">
-        <v>0.023314495758075419</v>
+        <v>0.023314495758075433</v>
       </c>
       <c r="E5" s="0">
         <v>1.0453484630784793</v>
@@ -1770,7 +1770,7 @@
         <v>2.6652531148591447</v>
       </c>
       <c r="H5" s="0">
-        <v>0.046258583828473698</v>
+        <v>0.046258583828472886</v>
       </c>
     </row>
     <row r="6">
@@ -1784,19 +1784,19 @@
         <v>32.612648721941795</v>
       </c>
       <c r="D6" s="0">
-        <v>0.59251406834387799</v>
+        <v>0.59251406834387865</v>
       </c>
       <c r="E6" s="0">
         <v>27.786236300889385</v>
       </c>
       <c r="F6" s="0">
-        <v>0.305303493654977</v>
+        <v>0.30530349365497716</v>
       </c>
       <c r="G6" s="0">
         <v>42.478861888601713</v>
       </c>
       <c r="H6" s="0">
-        <v>0.96849783463005734</v>
+        <v>0.96849783463004047</v>
       </c>
     </row>
     <row r="7">
@@ -1810,19 +1810,19 @@
         <v>2012.7369873550406</v>
       </c>
       <c r="D7" s="0">
-        <v>0.52514475238601943</v>
+        <v>0.52514475238601988</v>
       </c>
       <c r="E7" s="0">
         <v>2028.9443257372891</v>
       </c>
       <c r="F7" s="0">
-        <v>0.16281496543628163</v>
+        <v>0.16281496543628168</v>
       </c>
       <c r="G7" s="0">
         <v>2055.7074664777992</v>
       </c>
       <c r="H7" s="0">
-        <v>0.49998960318128227</v>
+        <v>0.4999896031812765</v>
       </c>
     </row>
     <row r="8">
@@ -1876,13 +1876,13 @@
         <v>0.12673682243702644</v>
       </c>
       <c r="D10" s="0">
-        <v>0.11405490087657609</v>
+        <v>0.1140549008765761</v>
       </c>
       <c r="E10" s="0">
         <v>0.026074417791032811</v>
       </c>
       <c r="F10" s="0">
-        <v>0.030371346153795976</v>
+        <v>0.030371346153795973</v>
       </c>
       <c r="G10" s="0">
         <v>-0.066553683653001627</v>
@@ -1902,13 +1902,13 @@
         <v>0.21295824877776681</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584918</v>
+        <v>0.23290259235584826</v>
       </c>
       <c r="E11" s="0">
         <v>0.15553801064280748</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134081</v>
+        <v>0.11320617940134112</v>
       </c>
       <c r="G11" s="0">
         <v>0.097959987485069178</v>
@@ -1984,11 +1984,11 @@
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
       <c r="D15" s="0">
-        <v>-0.96702762880715454</v>
+        <v>-0.96702762880715443</v>
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="0">
-        <v>-1.8991201023769342</v>
+        <v>-1.8991201023769344</v>
       </c>
       <c r="G15" s="0"/>
       <c r="H15" s="0">
@@ -2130,19 +2130,19 @@
         <v>1.5818876854215773</v>
       </c>
       <c r="D5" s="0">
-        <v>0.021995428894373604</v>
+        <v>0.021995428894373663</v>
       </c>
       <c r="E5" s="0">
         <v>1.0322974677588945</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0088523901969897612</v>
+        <v>0.0088523901969897595</v>
       </c>
       <c r="G5" s="0">
         <v>2.7106695520128801</v>
       </c>
       <c r="H5" s="0">
-        <v>0.055624362787808516</v>
+        <v>0.055624362787809689</v>
       </c>
     </row>
     <row r="6">
@@ -2156,19 +2156,19 @@
         <v>33.866664390943001</v>
       </c>
       <c r="D6" s="0">
-        <v>0.66482682871169907</v>
+        <v>0.66482682871170096</v>
       </c>
       <c r="E6" s="0">
         <v>28.338049271814945</v>
       </c>
       <c r="F6" s="0">
-        <v>0.30443499619021591</v>
+        <v>0.30443499619021575</v>
       </c>
       <c r="G6" s="0">
         <v>41.468058776470642</v>
       </c>
       <c r="H6" s="0">
-        <v>1.1248762098337053</v>
+        <v>1.124876209833729</v>
       </c>
     </row>
     <row r="7">
@@ -2182,19 +2182,19 @@
         <v>2011.383181906765</v>
       </c>
       <c r="D7" s="0">
-        <v>0.64824326012357492</v>
+        <v>0.64824326012357603</v>
       </c>
       <c r="E7" s="0">
         <v>2028.7592251337592</v>
       </c>
       <c r="F7" s="0">
-        <v>0.15824793476623436</v>
+        <v>0.15824793476623428</v>
       </c>
       <c r="G7" s="0">
         <v>2055.4669007426869</v>
       </c>
       <c r="H7" s="0">
-        <v>0.53270448766036593</v>
+        <v>0.53270448766037293</v>
       </c>
     </row>
     <row r="8">
@@ -2254,7 +2254,7 @@
         <v>0.036307032314289334</v>
       </c>
       <c r="F10" s="0">
-        <v>0.027190527681208252</v>
+        <v>0.027190527681208249</v>
       </c>
       <c r="G10" s="0">
         <v>-0.083124672603394956</v>
@@ -2274,13 +2274,13 @@
         <v>0.26789042739902413</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584918</v>
+        <v>0.23290259235584826</v>
       </c>
       <c r="E11" s="0">
         <v>0.20305572701508368</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134081</v>
+        <v>0.11320617940134112</v>
       </c>
       <c r="G11" s="0">
         <v>0.040599036422804602</v>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="0">
-        <v>-1.8699933815618632</v>
+        <v>-1.8699933815618635</v>
       </c>
       <c r="G15" s="0"/>
       <c r="H15" s="0">
@@ -2502,19 +2502,19 @@
         <v>1.6215365976018274</v>
       </c>
       <c r="D5" s="0">
-        <v>0.016266387224062241</v>
+        <v>0.016266387224062252</v>
       </c>
       <c r="E5" s="0">
         <v>1.049940221032756</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0083956845079804828</v>
+        <v>0.0083956845079804741</v>
       </c>
       <c r="G5" s="0">
         <v>2.7332749178872864</v>
       </c>
       <c r="H5" s="0">
-        <v>0.072770028985407562</v>
+        <v>0.072770028985406188</v>
       </c>
     </row>
     <row r="6">
@@ -2528,19 +2528,19 @@
         <v>31.276548838845365</v>
       </c>
       <c r="D6" s="0">
-        <v>0.47883503644478748</v>
+        <v>0.47883503644478764</v>
       </c>
       <c r="E6" s="0">
         <v>27.578807287346752</v>
       </c>
       <c r="F6" s="0">
-        <v>0.28723020255863985</v>
+        <v>0.28723020255863962</v>
       </c>
       <c r="G6" s="0">
         <v>40.964631433435578</v>
       </c>
       <c r="H6" s="0">
-        <v>1.4667819936325299</v>
+        <v>1.4667819936325015</v>
       </c>
     </row>
     <row r="7">
@@ -2554,19 +2554,19 @@
         <v>2014.4578335437413</v>
       </c>
       <c r="D7" s="0">
-        <v>0.45810668334106663</v>
+        <v>0.45810668334106636</v>
       </c>
       <c r="E7" s="0">
         <v>2029.0831854185915</v>
       </c>
       <c r="F7" s="0">
-        <v>0.14420088926537661</v>
+        <v>0.14420088926537666</v>
       </c>
       <c r="G7" s="0">
         <v>2055.3539394041791</v>
       </c>
       <c r="H7" s="0">
-        <v>0.60463529359323509</v>
+        <v>0.60463529359322876</v>
       </c>
     </row>
     <row r="8">
@@ -2620,13 +2620,13 @@
         <v>0.092725489966610564</v>
       </c>
       <c r="D10" s="0">
-        <v>0.071470239747286668</v>
+        <v>0.071470239747286682</v>
       </c>
       <c r="E10" s="0">
         <v>0.023203637123463849</v>
       </c>
       <c r="F10" s="0">
-        <v>0.023214229358071381</v>
+        <v>0.023214229358071378</v>
       </c>
       <c r="G10" s="0">
         <v>-0.090569112576122102</v>
@@ -2646,13 +2646,13 @@
         <v>0.25995862183309271</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584918</v>
+        <v>0.23290259235584826</v>
       </c>
       <c r="E11" s="0">
         <v>0.18783521794406255</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134081</v>
+        <v>0.11320617940134112</v>
       </c>
       <c r="G11" s="0">
         <v>-0.054979278309957635</v>
@@ -2728,7 +2728,7 @@
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
       <c r="D15" s="0">
-        <v>-0.88812835528933598</v>
+        <v>-0.88812835528933576</v>
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="0">
@@ -2880,13 +2880,13 @@
         <v>1.0584201237090629</v>
       </c>
       <c r="F5" s="0">
-        <v>0.010011679800323059</v>
+        <v>0.010011679800323055</v>
       </c>
       <c r="G5" s="0">
         <v>2.8736852792860486</v>
       </c>
       <c r="H5" s="0">
-        <v>0.099752448258089765</v>
+        <v>0.099752448258093387</v>
       </c>
     </row>
     <row r="6">
@@ -2900,19 +2900,19 @@
         <v>29.539646428227073</v>
       </c>
       <c r="D6" s="0">
-        <v>0.40398045488357742</v>
+        <v>0.40398045488357753</v>
       </c>
       <c r="E6" s="0">
         <v>27.205591680747055</v>
       </c>
       <c r="F6" s="0">
-        <v>0.35907888560566947</v>
+        <v>0.35907888560566931</v>
       </c>
       <c r="G6" s="0">
         <v>38.135096123271481</v>
       </c>
       <c r="H6" s="0">
-        <v>1.7655205805806518</v>
+        <v>1.7655205805807175</v>
       </c>
     </row>
     <row r="7">
@@ -2926,19 +2926,19 @@
         <v>2016.4892583031369</v>
       </c>
       <c r="D7" s="0">
-        <v>0.40050669330164168</v>
+        <v>0.40050669330164185</v>
       </c>
       <c r="E7" s="0">
         <v>2029.2504315329716</v>
       </c>
       <c r="F7" s="0">
-        <v>0.17649912959549127</v>
+        <v>0.17649912959549124</v>
       </c>
       <c r="G7" s="0">
         <v>2054.8854620308148</v>
       </c>
       <c r="H7" s="0">
-        <v>0.65663263384726855</v>
+        <v>0.65663263384728121</v>
       </c>
     </row>
     <row r="8">
@@ -2992,13 +2992,13 @@
         <v>0.046828061505501228</v>
       </c>
       <c r="D10" s="0">
-        <v>0.050186685561526216</v>
+        <v>0.050186685561526223</v>
       </c>
       <c r="E10" s="0">
         <v>0.017271495626401734</v>
       </c>
       <c r="F10" s="0">
-        <v>0.02395399260615259</v>
+        <v>0.023953992606152587</v>
       </c>
       <c r="G10" s="0">
         <v>-0.12779606917016562</v>
@@ -3018,13 +3018,13 @@
         <v>0.20701979653756553</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584918</v>
+        <v>0.23290259235584826</v>
       </c>
       <c r="E11" s="0">
         <v>0.16629930591957987</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134081</v>
+        <v>0.11320617940134112</v>
       </c>
       <c r="G11" s="0">
         <v>-0.093878014257114728</v>
@@ -3100,7 +3100,7 @@
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
       <c r="D15" s="0">
-        <v>-0.97270402250639187</v>
+        <v>-0.97270402250639176</v>
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="0">
@@ -3246,19 +3246,19 @@
         <v>1.6620449477919657</v>
       </c>
       <c r="D5" s="0">
-        <v>0.013224219881425988</v>
+        <v>0.013224219881426013</v>
       </c>
       <c r="E5" s="0">
         <v>1.0947566673641709</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0087911081952661355</v>
+        <v>0.0087911081952661181</v>
       </c>
       <c r="G5" s="0">
         <v>2.7595444777953633</v>
       </c>
       <c r="H5" s="0">
-        <v>0.15216591100594631</v>
+        <v>0.15216591100596835</v>
       </c>
     </row>
     <row r="6">
@@ -3272,19 +3272,19 @@
         <v>28.521101010743301</v>
       </c>
       <c r="D6" s="0">
-        <v>0.52600335132648057</v>
+        <v>0.52600335132648091</v>
       </c>
       <c r="E6" s="0">
         <v>25.625732746418773</v>
       </c>
       <c r="F6" s="0">
-        <v>0.3099309470416976</v>
+        <v>0.30993094704169699</v>
       </c>
       <c r="G6" s="0">
         <v>40.491138357375227</v>
       </c>
       <c r="H6" s="0">
-        <v>3.2040174110708657</v>
+        <v>3.2040174110713324</v>
       </c>
     </row>
     <row r="7">
@@ -3298,19 +3298,19 @@
         <v>2017.6839216288795</v>
       </c>
       <c r="D7" s="0">
-        <v>0.5907720578746275</v>
+        <v>0.59077205787462739</v>
       </c>
       <c r="E7" s="0">
         <v>2030.0770758762628</v>
       </c>
       <c r="F7" s="0">
-        <v>0.15318281761045027</v>
+        <v>0.15318281761045005</v>
       </c>
       <c r="G7" s="0">
         <v>2055.0684519356873</v>
       </c>
       <c r="H7" s="0">
-        <v>0.73309305680884684</v>
+        <v>0.73309305680889614</v>
       </c>
     </row>
     <row r="8">
@@ -3370,7 +3370,7 @@
         <v>-0.0046586835905360058</v>
       </c>
       <c r="F10" s="0">
-        <v>0.01586802091460596</v>
+        <v>0.015868020914605957</v>
       </c>
       <c r="G10" s="0">
         <v>-0.10699348518290286</v>
@@ -3390,13 +3390,13 @@
         <v>0.061297589930489949</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584918</v>
+        <v>0.23290259235584826</v>
       </c>
       <c r="E11" s="0">
         <v>0.12853962895434989</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134081</v>
+        <v>0.11320617940134112</v>
       </c>
       <c r="G11" s="0">
         <v>-0.083027973214996109</v>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="0">
-        <v>-1.8303362553570339</v>
+        <v>-1.8303362553570341</v>
       </c>
       <c r="G15" s="0"/>
       <c r="H15" s="0">
@@ -3699,13 +3699,13 @@
         <v>1.6896480892875236</v>
       </c>
       <c r="D5" s="0">
-        <v>0.022908700469128622</v>
+        <v>0.022908700469128591</v>
       </c>
       <c r="E5" s="0">
         <v>1.0861729806504752</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0099352921811854816</v>
+        <v>0.0099352921811854712</v>
       </c>
       <c r="G5" s="0">
         <v>2.4636835290448733</v>
@@ -3725,13 +3725,13 @@
         <v>29.402727453591979</v>
       </c>
       <c r="D6" s="0">
-        <v>0.42964820474895854</v>
+        <v>0.42964820474895782</v>
       </c>
       <c r="E6" s="0">
         <v>26.18968329470048</v>
       </c>
       <c r="F6" s="0">
-        <v>0.27731720574676527</v>
+        <v>0.27731720574676494</v>
       </c>
       <c r="G6" s="0">
         <v>47.481340280257129</v>
@@ -3751,7 +3751,7 @@
         <v>2015.4124672139451</v>
       </c>
       <c r="D7" s="0">
-        <v>0.35695865848059549</v>
+        <v>0.35695865848059533</v>
       </c>
       <c r="E7" s="0">
         <v>2029.2583242869478</v>
@@ -3843,13 +3843,13 @@
         <v>-0.28476207493962136</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584918</v>
+        <v>0.23290259235584826</v>
       </c>
       <c r="E11" s="0">
         <v>-0.18162463427241704</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134081</v>
+        <v>0.11320617940134112</v>
       </c>
       <c r="G11" s="0">
         <v>0.21481644926089416</v>
@@ -4071,19 +4071,19 @@
         <v>1.6894768100060835</v>
       </c>
       <c r="D5" s="0">
-        <v>0.023591287567835118</v>
+        <v>0.023591287567835122</v>
       </c>
       <c r="E5" s="0">
         <v>1.0861642315894984</v>
       </c>
       <c r="F5" s="0">
-        <v>0.010232306245804996</v>
+        <v>0.010232306245804993</v>
       </c>
       <c r="G5" s="0">
         <v>2.4588205478764813</v>
       </c>
       <c r="H5" s="0">
-        <v>0.027956171658815504</v>
+        <v>0.02795617165881522</v>
       </c>
     </row>
     <row r="6">
@@ -4103,13 +4103,13 @@
         <v>26.191282804847177</v>
       </c>
       <c r="F6" s="0">
-        <v>0.28566788045886188</v>
+        <v>0.28566788045886177</v>
       </c>
       <c r="G6" s="0">
         <v>47.611998006356629</v>
       </c>
       <c r="H6" s="0">
-        <v>0.70741041590773046</v>
+        <v>0.70741041590772336</v>
       </c>
     </row>
     <row r="7">
@@ -4123,19 +4123,19 @@
         <v>2015.4110769527874</v>
       </c>
       <c r="D7" s="0">
-        <v>0.36735260142182269</v>
+        <v>0.36735260142182247</v>
       </c>
       <c r="E7" s="0">
         <v>2029.2596259629372</v>
       </c>
       <c r="F7" s="0">
-        <v>0.16406460622795263</v>
+        <v>0.16406460622795271</v>
       </c>
       <c r="G7" s="0">
         <v>2057.2329636535314</v>
       </c>
       <c r="H7" s="0">
-        <v>0.47464753140315841</v>
+        <v>0.47464753140315552</v>
       </c>
     </row>
     <row r="8">
@@ -4189,7 +4189,7 @@
         <v>0.020541538643398471</v>
       </c>
       <c r="D10" s="0">
-        <v>0.11590032501488885</v>
+        <v>0.11590032501488888</v>
       </c>
       <c r="E10" s="0">
         <v>-0.0070424147788101799</v>
@@ -4215,13 +4215,13 @@
         <v>-0.27897249464888318</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584918</v>
+        <v>0.23290259235584826</v>
       </c>
       <c r="E11" s="0">
         <v>-0.17796833731907924</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134081</v>
+        <v>0.11320617940134112</v>
       </c>
       <c r="G11" s="0">
         <v>0.21410256027036212</v>
@@ -4297,7 +4297,7 @@
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
       <c r="D15" s="0">
-        <v>-1.4522442085844354</v>
+        <v>-1.4522442085844351</v>
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="0">
@@ -4443,19 +4443,19 @@
         <v>1.6891557068319809</v>
       </c>
       <c r="D5" s="0">
-        <v>0.024330437883264857</v>
+        <v>0.024330437883264829</v>
       </c>
       <c r="E5" s="0">
         <v>1.0861179706930337</v>
       </c>
       <c r="F5" s="0">
-        <v>0.01055590855370989</v>
+        <v>0.010555908553709853</v>
       </c>
       <c r="G5" s="0">
         <v>2.4538030293796544</v>
       </c>
       <c r="H5" s="0">
-        <v>0.028854638185704842</v>
+        <v>0.028854638185704919</v>
       </c>
     </row>
     <row r="6">
@@ -4469,19 +4469,19 @@
         <v>29.418082988295552</v>
       </c>
       <c r="D6" s="0">
-        <v>0.45676296252619925</v>
+        <v>0.45676296252619875</v>
       </c>
       <c r="E6" s="0">
         <v>26.194148882388969</v>
       </c>
       <c r="F6" s="0">
-        <v>0.29479763863500036</v>
+        <v>0.29479763863499925</v>
       </c>
       <c r="G6" s="0">
         <v>47.747921639770951</v>
       </c>
       <c r="H6" s="0">
-        <v>0.73566198408945871</v>
+        <v>0.73566198408946071</v>
       </c>
     </row>
     <row r="7">
@@ -4495,19 +4495,19 @@
         <v>2015.407069411106</v>
       </c>
       <c r="D7" s="0">
-        <v>0.37872564715215196</v>
+        <v>0.37872564715215168</v>
       </c>
       <c r="E7" s="0">
         <v>2029.2608234918544</v>
       </c>
       <c r="F7" s="0">
-        <v>0.16885530790421788</v>
+        <v>0.16885530790421791</v>
       </c>
       <c r="G7" s="0">
         <v>2057.2825167836017</v>
       </c>
       <c r="H7" s="0">
-        <v>0.49001041796986139</v>
+        <v>0.49001041796986183</v>
       </c>
     </row>
     <row r="8">
@@ -4567,7 +4567,7 @@
         <v>-0.0069930146707111174</v>
       </c>
       <c r="F10" s="0">
-        <v>0.034990623000595085</v>
+        <v>0.034990623000595078</v>
       </c>
       <c r="G10" s="0">
         <v>0.029245565269330642</v>
@@ -4587,13 +4587,13 @@
         <v>-0.27263400575483843</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584918</v>
+        <v>0.23290259235584826</v>
       </c>
       <c r="E11" s="0">
         <v>-0.17405765895195913</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134081</v>
+        <v>0.11320617940134112</v>
       </c>
       <c r="G11" s="0">
         <v>0.21275329323958658</v>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="0">
-        <v>-1.9106363055250826</v>
+        <v>-1.9106363055250828</v>
       </c>
       <c r="G15" s="0"/>
       <c r="H15" s="0">
@@ -4815,19 +4815,19 @@
         <v>1.6885701793906001</v>
       </c>
       <c r="D5" s="0">
-        <v>0.025127643604378108</v>
+        <v>0.025127643604378084</v>
       </c>
       <c r="E5" s="0">
         <v>1.0859975874233851</v>
       </c>
       <c r="F5" s="0">
-        <v>0.010908183676013776</v>
+        <v>0.010908183676013788</v>
       </c>
       <c r="G5" s="0">
         <v>2.449355241630859</v>
       </c>
       <c r="H5" s="0">
-        <v>0.03000352187420759</v>
+        <v>0.030003521874207822</v>
       </c>
     </row>
     <row r="6">
@@ -4841,19 +4841,19 @@
         <v>29.434922773295163</v>
       </c>
       <c r="D6" s="0">
-        <v>0.47236966547529446</v>
+        <v>0.47236966547529352</v>
       </c>
       <c r="E6" s="0">
         <v>26.199444060831024</v>
       </c>
       <c r="F6" s="0">
-        <v>0.3048002924911753</v>
+        <v>0.30480029249117552</v>
       </c>
       <c r="G6" s="0">
         <v>47.869323038419864</v>
       </c>
       <c r="H6" s="0">
-        <v>0.77061062717978213</v>
+        <v>0.77061062717978746</v>
       </c>
     </row>
     <row r="7">
@@ -4867,19 +4867,19 @@
         <v>2015.3982795653592</v>
       </c>
       <c r="D7" s="0">
-        <v>0.39120994145197507</v>
+        <v>0.39120994145197441</v>
       </c>
       <c r="E7" s="0">
         <v>2029.2616554555318</v>
       </c>
       <c r="F7" s="0">
-        <v>0.17408719076627929</v>
+        <v>0.17408719076627938</v>
       </c>
       <c r="G7" s="0">
         <v>2057.3256920753574</v>
       </c>
       <c r="H7" s="0">
-        <v>0.50823787784044427</v>
+        <v>0.50823787784044738</v>
       </c>
     </row>
     <row r="8">
@@ -4959,13 +4959,13 @@
         <v>-0.26578735411317211</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584918</v>
+        <v>0.23290259235584826</v>
       </c>
       <c r="E11" s="0">
         <v>-0.16993815955597569</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134081</v>
+        <v>0.11320617940134112</v>
       </c>
       <c r="G11" s="0">
         <v>0.21045446681037561</v>
@@ -5187,19 +5187,19 @@
         <v>1.687535171424617</v>
       </c>
       <c r="D5" s="0">
-        <v>0.025978554654497828</v>
+        <v>0.025978554654497887</v>
       </c>
       <c r="E5" s="0">
         <v>1.0857565055392717</v>
       </c>
       <c r="F5" s="0">
-        <v>0.011292379669798349</v>
+        <v>0.011292379669798368</v>
       </c>
       <c r="G5" s="0">
         <v>2.4479147505383496</v>
       </c>
       <c r="H5" s="0">
-        <v>0.031521202588152823</v>
+        <v>0.031521202588153177</v>
       </c>
     </row>
     <row r="6">
@@ -5213,19 +5213,19 @@
         <v>29.464096546632351</v>
       </c>
       <c r="D6" s="0">
-        <v>0.48959714763511375</v>
+        <v>0.4895971476351153</v>
       </c>
       <c r="E6" s="0">
         <v>26.208777251810776</v>
       </c>
       <c r="F6" s="0">
-        <v>0.31582312490528469</v>
+        <v>0.31582312490528519</v>
       </c>
       <c r="G6" s="0">
         <v>47.90821149705053</v>
       </c>
       <c r="H6" s="0">
-        <v>0.81308802164167981</v>
+        <v>0.8130880216416887</v>
       </c>
     </row>
     <row r="7">
@@ -5239,7 +5239,7 @@
         <v>2015.3810037229666</v>
       </c>
       <c r="D7" s="0">
-        <v>0.40494272684204147</v>
+        <v>0.40494272684204252</v>
       </c>
       <c r="E7" s="0">
         <v>2029.2618503121867</v>
@@ -5251,7 +5251,7 @@
         <v>2057.3386760901299</v>
       </c>
       <c r="H7" s="0">
-        <v>0.52927064214932096</v>
+        <v>0.52927064214932507</v>
       </c>
     </row>
     <row r="8">
@@ -5311,7 +5311,7 @@
         <v>-0.0066710833457914731</v>
       </c>
       <c r="F10" s="0">
-        <v>0.037432415722906148</v>
+        <v>0.037432415722906141</v>
       </c>
       <c r="G10" s="0">
         <v>0.032347642473455229</v>
@@ -5331,13 +5331,13 @@
         <v>-0.25810639840834426</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584918</v>
+        <v>0.23290259235584826</v>
       </c>
       <c r="E11" s="0">
         <v>-0.16538785153650792</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134081</v>
+        <v>0.11320617940134112</v>
       </c>
       <c r="G11" s="0">
         <v>0.20614838454446271</v>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="0">
-        <v>-1.8750524957634702</v>
+        <v>-1.8750524957634704</v>
       </c>
       <c r="G15" s="0"/>
       <c r="H15" s="0">
@@ -5559,19 +5559,19 @@
         <v>1.6857390495736435</v>
       </c>
       <c r="D5" s="0">
-        <v>0.026864869650476065</v>
+        <v>0.026864869650475989</v>
       </c>
       <c r="E5" s="0">
         <v>1.08525190005951</v>
       </c>
       <c r="F5" s="0">
-        <v>0.011700854902212886</v>
+        <v>0.011700854902212888</v>
       </c>
       <c r="G5" s="0">
         <v>2.4527329069832104</v>
       </c>
       <c r="H5" s="0">
-        <v>0.033411175450397131</v>
+        <v>0.033411175450397061</v>
       </c>
     </row>
     <row r="6">
@@ -5585,19 +5585,19 @@
         <v>29.514877253399511</v>
       </c>
       <c r="D6" s="0">
-        <v>0.50859898466407005</v>
+        <v>0.50859898466406817</v>
       </c>
       <c r="E6" s="0">
         <v>26.226908045103738</v>
       </c>
       <c r="F6" s="0">
-        <v>0.32779981061744334</v>
+        <v>0.32779981061744329</v>
       </c>
       <c r="G6" s="0">
         <v>47.773494041800433</v>
       </c>
       <c r="H6" s="0">
-        <v>0.85949447990254513</v>
+        <v>0.85949447990254302</v>
       </c>
     </row>
     <row r="7">
@@ -5611,7 +5611,7 @@
         <v>2015.3480653037539</v>
       </c>
       <c r="D7" s="0">
-        <v>0.42004053271002378</v>
+        <v>0.42004053271002323</v>
       </c>
       <c r="E7" s="0">
         <v>2029.2603838994928</v>
@@ -5623,7 +5623,7 @@
         <v>2057.2917991967151</v>
       </c>
       <c r="H7" s="0">
-        <v>0.55019943706621133</v>
+        <v>0.55019943706621155</v>
       </c>
     </row>
     <row r="8">
@@ -5703,13 +5703,13 @@
         <v>-0.24933458489060456</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584918</v>
+        <v>0.23290259235584826</v>
       </c>
       <c r="E11" s="0">
         <v>-0.16022765386733795</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134081</v>
+        <v>0.11320617940134112</v>
       </c>
       <c r="G11" s="0">
         <v>0.19920705346549994</v>
@@ -5931,19 +5931,19 @@
         <v>1.6826655803386825</v>
       </c>
       <c r="D5" s="0">
-        <v>0.027741236702698222</v>
+        <v>0.027741236702698176</v>
       </c>
       <c r="E5" s="0">
         <v>1.0842622095177434</v>
       </c>
       <c r="F5" s="0">
-        <v>0.012119276769368954</v>
+        <v>0.012119276769368935</v>
       </c>
       <c r="G5" s="0">
         <v>2.4792710700045593</v>
       </c>
       <c r="H5" s="0">
-        <v>0.034637345574192145</v>
+        <v>0.034637345574191798</v>
       </c>
     </row>
     <row r="6">
@@ -5957,19 +5957,19 @@
         <v>29.602991482039275</v>
       </c>
       <c r="D6" s="0">
-        <v>0.52940714637291297</v>
+        <v>0.5294071463729112</v>
       </c>
       <c r="E6" s="0">
         <v>26.261226667871384</v>
       </c>
       <c r="F6" s="0">
-        <v>0.34058415076493065</v>
+        <v>0.34058415076493004</v>
       </c>
       <c r="G6" s="0">
         <v>47.047664200021742</v>
       </c>
       <c r="H6" s="0">
-        <v>0.865547846389213</v>
+        <v>0.86554784638920468</v>
       </c>
     </row>
     <row r="7">
@@ -5983,19 +5983,19 @@
         <v>2015.2872660161784</v>
       </c>
       <c r="D7" s="0">
-        <v>0.43655745596215917</v>
+        <v>0.43655745596215834</v>
       </c>
       <c r="E7" s="0">
         <v>2029.2556902390324</v>
       </c>
       <c r="F7" s="0">
-        <v>0.19230687684498701</v>
+        <v>0.19230687684498704</v>
       </c>
       <c r="G7" s="0">
         <v>2057.0518139220403</v>
       </c>
       <c r="H7" s="0">
-        <v>0.54404737453048824</v>
+        <v>0.54404737453048424</v>
       </c>
     </row>
     <row r="8">
@@ -6075,13 +6075,13 @@
         <v>-0.23877265004584558</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584918</v>
+        <v>0.23290259235584826</v>
       </c>
       <c r="E11" s="0">
         <v>-0.15419254318658915</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134081</v>
+        <v>0.11320617940134112</v>
       </c>
       <c r="G11" s="0">
         <v>0.18906927606457202</v>

--- a/PolitoCliDyn_1stOrderCC/PolitoCliDyn_OutData/FFEFitParameterTable_PartIII.xlsx
+++ b/PolitoCliDyn_1stOrderCC/PolitoCliDyn_OutData/FFEFitParameterTable_PartIII.xlsx
@@ -270,19 +270,19 @@
         <v>1.6775688167309442</v>
       </c>
       <c r="D5" s="0">
-        <v>0.028522220857648019</v>
+        <v>0.028522220857648103</v>
       </c>
       <c r="E5" s="0">
         <v>1.0823675156097736</v>
       </c>
       <c r="F5" s="0">
-        <v>0.012502107269443483</v>
+        <v>0.012502107269443476</v>
       </c>
       <c r="G5" s="0">
         <v>2.5280688889323333</v>
       </c>
       <c r="H5" s="0">
-        <v>0.033649298336102022</v>
+        <v>0.033649298336102133</v>
       </c>
     </row>
     <row r="6">
@@ -296,19 +296,19 @@
         <v>29.753569518754883</v>
       </c>
       <c r="D6" s="0">
-        <v>0.5519062207266342</v>
+        <v>0.5519062207266362</v>
       </c>
       <c r="E6" s="0">
         <v>26.32637336061574</v>
       </c>
       <c r="F6" s="0">
-        <v>0.35339846538332942</v>
+        <v>0.35339846538332909</v>
       </c>
       <c r="G6" s="0">
         <v>45.768725643815294</v>
       </c>
       <c r="H6" s="0">
-        <v>0.7959939796827773</v>
+        <v>0.79599397968277963</v>
       </c>
     </row>
     <row r="7">
@@ -322,19 +322,19 @@
         <v>2015.1774441828434</v>
       </c>
       <c r="D7" s="0">
-        <v>0.45455901225260298</v>
+        <v>0.45455901225260331</v>
       </c>
       <c r="E7" s="0">
         <v>2029.2441816542419</v>
       </c>
       <c r="F7" s="0">
-        <v>0.19833604237854732</v>
+        <v>0.19833604237854741</v>
       </c>
       <c r="G7" s="0">
         <v>2056.6437698036698</v>
       </c>
       <c r="H7" s="0">
-        <v>0.49141538863493539</v>
+        <v>0.49141538863493678</v>
       </c>
     </row>
     <row r="8">
@@ -394,7 +394,7 @@
         <v>-0.0038724151989575351</v>
       </c>
       <c r="F10" s="0">
-        <v>0.04132906240771507</v>
+        <v>0.041329062407715077</v>
       </c>
       <c r="G10" s="0">
         <v>-0.0072284352643525729</v>
@@ -414,13 +414,13 @@
         <v>-0.22540805754842097</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584826</v>
+        <v>0.23290259235584918</v>
       </c>
       <c r="E11" s="0">
         <v>-0.14650724788154434</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134112</v>
+        <v>0.11320617940134081</v>
       </c>
       <c r="G11" s="0">
         <v>0.1783406861396486</v>
@@ -642,19 +642,19 @@
         <v>1.670186071988129</v>
       </c>
       <c r="D5" s="0">
-        <v>0.029268270443908749</v>
+        <v>0.029268270443908815</v>
       </c>
       <c r="E5" s="0">
         <v>1.0788099722598963</v>
       </c>
       <c r="F5" s="0">
-        <v>0.012742576240036859</v>
+        <v>0.012742576240036838</v>
       </c>
       <c r="G5" s="0">
         <v>2.5737659402970863</v>
       </c>
       <c r="H5" s="0">
-        <v>0.033771160852998791</v>
+        <v>0.033771160852998777</v>
       </c>
     </row>
     <row r="6">
@@ -668,19 +668,19 @@
         <v>29.981826045225866</v>
       </c>
       <c r="D6" s="0">
-        <v>0.5791260187169136</v>
+        <v>0.57912601871691516</v>
       </c>
       <c r="E6" s="0">
         <v>26.449332182069917</v>
       </c>
       <c r="F6" s="0">
-        <v>0.36414321078698281</v>
+        <v>0.36414321078698209</v>
       </c>
       <c r="G6" s="0">
         <v>44.628727660260743</v>
       </c>
       <c r="H6" s="0">
-        <v>0.76122026328958314</v>
+        <v>0.76122026328958292</v>
       </c>
     </row>
     <row r="7">
@@ -694,19 +694,19 @@
         <v>2015.0024684932205</v>
       </c>
       <c r="D7" s="0">
-        <v>0.47688729089976573</v>
+        <v>0.47688729089976639</v>
       </c>
       <c r="E7" s="0">
         <v>2029.2187562697245</v>
       </c>
       <c r="F7" s="0">
-        <v>0.20265757175542928</v>
+        <v>0.20265757175542926</v>
       </c>
       <c r="G7" s="0">
         <v>2056.2941675472093</v>
       </c>
       <c r="H7" s="0">
-        <v>0.45880320192151441</v>
+        <v>0.45880320192151408</v>
       </c>
     </row>
     <row r="8">
@@ -786,13 +786,13 @@
         <v>-0.20798440619888936</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584826</v>
+        <v>0.23290259235584918</v>
       </c>
       <c r="E11" s="0">
         <v>-0.13599924644251615</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134112</v>
+        <v>0.11320617940134081</v>
       </c>
       <c r="G11" s="0">
         <v>0.1614628695340059</v>
@@ -1014,19 +1014,19 @@
         <v>1.6567012799155236</v>
       </c>
       <c r="D5" s="0">
-        <v>0.029105673897303144</v>
+        <v>0.029105673897303116</v>
       </c>
       <c r="E5" s="0">
         <v>1.0720861762377445</v>
       </c>
       <c r="F5" s="0">
-        <v>0.012526991651321267</v>
+        <v>0.012526991651321196</v>
       </c>
       <c r="G5" s="0">
         <v>2.5981844023847529</v>
       </c>
       <c r="H5" s="0">
-        <v>0.036782710173576184</v>
+        <v>0.036782710173576261</v>
       </c>
     </row>
     <row r="6">
@@ -1040,19 +1040,19 @@
         <v>30.427986294139878</v>
       </c>
       <c r="D6" s="0">
-        <v>0.60043341494116131</v>
+        <v>0.60043341494115965</v>
       </c>
       <c r="E6" s="0">
         <v>26.687356469323998</v>
       </c>
       <c r="F6" s="0">
-        <v>0.36549624256830759</v>
+        <v>0.36549624256830576</v>
       </c>
       <c r="G6" s="0">
         <v>44.038493109225271</v>
       </c>
       <c r="H6" s="0">
-        <v>0.81242230077284716</v>
+        <v>0.81242230077284883</v>
       </c>
     </row>
     <row r="7">
@@ -1066,19 +1066,19 @@
         <v>2014.6392024223624</v>
       </c>
       <c r="D7" s="0">
-        <v>0.49689730020051409</v>
+        <v>0.49689730020051276</v>
       </c>
       <c r="E7" s="0">
         <v>2029.1636457037603</v>
       </c>
       <c r="F7" s="0">
-        <v>0.20109580571009938</v>
+        <v>0.20109580571009944</v>
       </c>
       <c r="G7" s="0">
         <v>2056.1212040785877</v>
       </c>
       <c r="H7" s="0">
-        <v>0.47087499956791645</v>
+        <v>0.47087499956791734</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>0.0044127993635194596</v>
       </c>
       <c r="F10" s="0">
-        <v>0.04112011327548893</v>
+        <v>0.041120113275488937</v>
       </c>
       <c r="G10" s="0">
         <v>-0.039257305168509227</v>
@@ -1158,13 +1158,13 @@
         <v>-0.17865706816171212</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584826</v>
+        <v>0.23290259235584918</v>
       </c>
       <c r="E11" s="0">
         <v>-0.11762399515143329</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134112</v>
+        <v>0.11320617940134081</v>
       </c>
       <c r="G11" s="0">
         <v>0.14506127748987296</v>
@@ -1386,7 +1386,7 @@
         <v>1.632959364017557</v>
       </c>
       <c r="D5" s="0">
-        <v>0.026424898295746731</v>
+        <v>0.026424898295746752</v>
       </c>
       <c r="E5" s="0">
         <v>1.0604009063463966</v>
@@ -1398,7 +1398,7 @@
         <v>2.6290941731568678</v>
       </c>
       <c r="H5" s="0">
-        <v>0.040083567926587335</v>
+        <v>0.040083567926587078</v>
       </c>
     </row>
     <row r="6">
@@ -1412,7 +1412,7 @@
         <v>31.327974850527255</v>
       </c>
       <c r="D6" s="0">
-        <v>0.59084347081461996</v>
+        <v>0.59084347081462019</v>
       </c>
       <c r="E6" s="0">
         <v>27.169901067284037</v>
@@ -1424,7 +1424,7 @@
         <v>43.310378962522968</v>
       </c>
       <c r="H6" s="0">
-        <v>0.86317459836535382</v>
+        <v>0.86317459836534838</v>
       </c>
     </row>
     <row r="7">
@@ -1438,19 +1438,19 @@
         <v>2013.8908836775117</v>
       </c>
       <c r="D7" s="0">
-        <v>0.49863060022636568</v>
+        <v>0.49863060022636574</v>
       </c>
       <c r="E7" s="0">
         <v>2029.0979548571927</v>
       </c>
       <c r="F7" s="0">
-        <v>0.18165881933793651</v>
+        <v>0.18165881933793646</v>
       </c>
       <c r="G7" s="0">
         <v>2055.9174509084032</v>
       </c>
       <c r="H7" s="0">
-        <v>0.47592765817226707</v>
+        <v>0.47592765817226523</v>
       </c>
     </row>
     <row r="8">
@@ -1530,13 +1530,13 @@
         <v>-0.03423532391322226</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584826</v>
+        <v>0.23290259235584918</v>
       </c>
       <c r="E11" s="0">
         <v>0.047400006526856941</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134112</v>
+        <v>0.11320617940134081</v>
       </c>
       <c r="G11" s="0">
         <v>0.12520841646494318</v>
@@ -1758,7 +1758,7 @@
         <v>1.6046715934503903</v>
       </c>
       <c r="D5" s="0">
-        <v>0.023314495758075433</v>
+        <v>0.023314495758075419</v>
       </c>
       <c r="E5" s="0">
         <v>1.0453484630784793</v>
@@ -1770,7 +1770,7 @@
         <v>2.6652531148591447</v>
       </c>
       <c r="H5" s="0">
-        <v>0.046258583828472886</v>
+        <v>0.046258583828473698</v>
       </c>
     </row>
     <row r="6">
@@ -1784,19 +1784,19 @@
         <v>32.612648721941795</v>
       </c>
       <c r="D6" s="0">
-        <v>0.59251406834387865</v>
+        <v>0.59251406834387799</v>
       </c>
       <c r="E6" s="0">
         <v>27.786236300889385</v>
       </c>
       <c r="F6" s="0">
-        <v>0.30530349365497716</v>
+        <v>0.305303493654977</v>
       </c>
       <c r="G6" s="0">
         <v>42.478861888601713</v>
       </c>
       <c r="H6" s="0">
-        <v>0.96849783463004047</v>
+        <v>0.96849783463005734</v>
       </c>
     </row>
     <row r="7">
@@ -1810,19 +1810,19 @@
         <v>2012.7369873550406</v>
       </c>
       <c r="D7" s="0">
-        <v>0.52514475238601988</v>
+        <v>0.52514475238601943</v>
       </c>
       <c r="E7" s="0">
         <v>2028.9443257372891</v>
       </c>
       <c r="F7" s="0">
-        <v>0.16281496543628168</v>
+        <v>0.16281496543628163</v>
       </c>
       <c r="G7" s="0">
         <v>2055.7074664777992</v>
       </c>
       <c r="H7" s="0">
-        <v>0.4999896031812765</v>
+        <v>0.49998960318128227</v>
       </c>
     </row>
     <row r="8">
@@ -1876,13 +1876,13 @@
         <v>0.12673682243702644</v>
       </c>
       <c r="D10" s="0">
-        <v>0.1140549008765761</v>
+        <v>0.11405490087657609</v>
       </c>
       <c r="E10" s="0">
         <v>0.026074417791032811</v>
       </c>
       <c r="F10" s="0">
-        <v>0.030371346153795973</v>
+        <v>0.030371346153795976</v>
       </c>
       <c r="G10" s="0">
         <v>-0.066553683653001627</v>
@@ -1902,13 +1902,13 @@
         <v>0.21295824877776681</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584826</v>
+        <v>0.23290259235584918</v>
       </c>
       <c r="E11" s="0">
         <v>0.15553801064280748</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134112</v>
+        <v>0.11320617940134081</v>
       </c>
       <c r="G11" s="0">
         <v>0.097959987485069178</v>
@@ -1984,11 +1984,11 @@
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
       <c r="D15" s="0">
-        <v>-0.96702762880715443</v>
+        <v>-0.96702762880715454</v>
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="0">
-        <v>-1.8991201023769344</v>
+        <v>-1.8991201023769342</v>
       </c>
       <c r="G15" s="0"/>
       <c r="H15" s="0">
@@ -2130,19 +2130,19 @@
         <v>1.5818876854215773</v>
       </c>
       <c r="D5" s="0">
-        <v>0.021995428894373663</v>
+        <v>0.021995428894373604</v>
       </c>
       <c r="E5" s="0">
         <v>1.0322974677588945</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0088523901969897595</v>
+        <v>0.0088523901969897612</v>
       </c>
       <c r="G5" s="0">
         <v>2.7106695520128801</v>
       </c>
       <c r="H5" s="0">
-        <v>0.055624362787809689</v>
+        <v>0.055624362787808516</v>
       </c>
     </row>
     <row r="6">
@@ -2156,19 +2156,19 @@
         <v>33.866664390943001</v>
       </c>
       <c r="D6" s="0">
-        <v>0.66482682871170096</v>
+        <v>0.66482682871169907</v>
       </c>
       <c r="E6" s="0">
         <v>28.338049271814945</v>
       </c>
       <c r="F6" s="0">
-        <v>0.30443499619021575</v>
+        <v>0.30443499619021591</v>
       </c>
       <c r="G6" s="0">
         <v>41.468058776470642</v>
       </c>
       <c r="H6" s="0">
-        <v>1.124876209833729</v>
+        <v>1.1248762098337053</v>
       </c>
     </row>
     <row r="7">
@@ -2182,19 +2182,19 @@
         <v>2011.383181906765</v>
       </c>
       <c r="D7" s="0">
-        <v>0.64824326012357603</v>
+        <v>0.64824326012357492</v>
       </c>
       <c r="E7" s="0">
         <v>2028.7592251337592</v>
       </c>
       <c r="F7" s="0">
-        <v>0.15824793476623428</v>
+        <v>0.15824793476623436</v>
       </c>
       <c r="G7" s="0">
         <v>2055.4669007426869</v>
       </c>
       <c r="H7" s="0">
-        <v>0.53270448766037293</v>
+        <v>0.53270448766036593</v>
       </c>
     </row>
     <row r="8">
@@ -2254,7 +2254,7 @@
         <v>0.036307032314289334</v>
       </c>
       <c r="F10" s="0">
-        <v>0.027190527681208249</v>
+        <v>0.027190527681208252</v>
       </c>
       <c r="G10" s="0">
         <v>-0.083124672603394956</v>
@@ -2274,13 +2274,13 @@
         <v>0.26789042739902413</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584826</v>
+        <v>0.23290259235584918</v>
       </c>
       <c r="E11" s="0">
         <v>0.20305572701508368</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134112</v>
+        <v>0.11320617940134081</v>
       </c>
       <c r="G11" s="0">
         <v>0.040599036422804602</v>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="0">
-        <v>-1.8699933815618635</v>
+        <v>-1.8699933815618632</v>
       </c>
       <c r="G15" s="0"/>
       <c r="H15" s="0">
@@ -2502,19 +2502,19 @@
         <v>1.6215365976018274</v>
       </c>
       <c r="D5" s="0">
-        <v>0.016266387224062252</v>
+        <v>0.016266387224062241</v>
       </c>
       <c r="E5" s="0">
         <v>1.049940221032756</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0083956845079804741</v>
+        <v>0.0083956845079804828</v>
       </c>
       <c r="G5" s="0">
         <v>2.7332749178872864</v>
       </c>
       <c r="H5" s="0">
-        <v>0.072770028985406188</v>
+        <v>0.072770028985407562</v>
       </c>
     </row>
     <row r="6">
@@ -2528,19 +2528,19 @@
         <v>31.276548838845365</v>
       </c>
       <c r="D6" s="0">
-        <v>0.47883503644478764</v>
+        <v>0.47883503644478748</v>
       </c>
       <c r="E6" s="0">
         <v>27.578807287346752</v>
       </c>
       <c r="F6" s="0">
-        <v>0.28723020255863962</v>
+        <v>0.28723020255863985</v>
       </c>
       <c r="G6" s="0">
         <v>40.964631433435578</v>
       </c>
       <c r="H6" s="0">
-        <v>1.4667819936325015</v>
+        <v>1.4667819936325299</v>
       </c>
     </row>
     <row r="7">
@@ -2554,19 +2554,19 @@
         <v>2014.4578335437413</v>
       </c>
       <c r="D7" s="0">
-        <v>0.45810668334106636</v>
+        <v>0.45810668334106663</v>
       </c>
       <c r="E7" s="0">
         <v>2029.0831854185915</v>
       </c>
       <c r="F7" s="0">
-        <v>0.14420088926537666</v>
+        <v>0.14420088926537661</v>
       </c>
       <c r="G7" s="0">
         <v>2055.3539394041791</v>
       </c>
       <c r="H7" s="0">
-        <v>0.60463529359322876</v>
+        <v>0.60463529359323509</v>
       </c>
     </row>
     <row r="8">
@@ -2620,13 +2620,13 @@
         <v>0.092725489966610564</v>
       </c>
       <c r="D10" s="0">
-        <v>0.071470239747286682</v>
+        <v>0.071470239747286668</v>
       </c>
       <c r="E10" s="0">
         <v>0.023203637123463849</v>
       </c>
       <c r="F10" s="0">
-        <v>0.023214229358071378</v>
+        <v>0.023214229358071381</v>
       </c>
       <c r="G10" s="0">
         <v>-0.090569112576122102</v>
@@ -2646,13 +2646,13 @@
         <v>0.25995862183309271</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584826</v>
+        <v>0.23290259235584918</v>
       </c>
       <c r="E11" s="0">
         <v>0.18783521794406255</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134112</v>
+        <v>0.11320617940134081</v>
       </c>
       <c r="G11" s="0">
         <v>-0.054979278309957635</v>
@@ -2728,7 +2728,7 @@
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
       <c r="D15" s="0">
-        <v>-0.88812835528933576</v>
+        <v>-0.88812835528933598</v>
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="0">
@@ -2880,13 +2880,13 @@
         <v>1.0584201237090629</v>
       </c>
       <c r="F5" s="0">
-        <v>0.010011679800323055</v>
+        <v>0.010011679800323059</v>
       </c>
       <c r="G5" s="0">
         <v>2.8736852792860486</v>
       </c>
       <c r="H5" s="0">
-        <v>0.099752448258093387</v>
+        <v>0.099752448258089765</v>
       </c>
     </row>
     <row r="6">
@@ -2900,19 +2900,19 @@
         <v>29.539646428227073</v>
       </c>
       <c r="D6" s="0">
-        <v>0.40398045488357753</v>
+        <v>0.40398045488357742</v>
       </c>
       <c r="E6" s="0">
         <v>27.205591680747055</v>
       </c>
       <c r="F6" s="0">
-        <v>0.35907888560566931</v>
+        <v>0.35907888560566947</v>
       </c>
       <c r="G6" s="0">
         <v>38.135096123271481</v>
       </c>
       <c r="H6" s="0">
-        <v>1.7655205805807175</v>
+        <v>1.7655205805806518</v>
       </c>
     </row>
     <row r="7">
@@ -2926,19 +2926,19 @@
         <v>2016.4892583031369</v>
       </c>
       <c r="D7" s="0">
-        <v>0.40050669330164185</v>
+        <v>0.40050669330164168</v>
       </c>
       <c r="E7" s="0">
         <v>2029.2504315329716</v>
       </c>
       <c r="F7" s="0">
-        <v>0.17649912959549124</v>
+        <v>0.17649912959549127</v>
       </c>
       <c r="G7" s="0">
         <v>2054.8854620308148</v>
       </c>
       <c r="H7" s="0">
-        <v>0.65663263384728121</v>
+        <v>0.65663263384726855</v>
       </c>
     </row>
     <row r="8">
@@ -2992,13 +2992,13 @@
         <v>0.046828061505501228</v>
       </c>
       <c r="D10" s="0">
-        <v>0.050186685561526223</v>
+        <v>0.050186685561526216</v>
       </c>
       <c r="E10" s="0">
         <v>0.017271495626401734</v>
       </c>
       <c r="F10" s="0">
-        <v>0.023953992606152587</v>
+        <v>0.02395399260615259</v>
       </c>
       <c r="G10" s="0">
         <v>-0.12779606917016562</v>
@@ -3018,13 +3018,13 @@
         <v>0.20701979653756553</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584826</v>
+        <v>0.23290259235584918</v>
       </c>
       <c r="E11" s="0">
         <v>0.16629930591957987</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134112</v>
+        <v>0.11320617940134081</v>
       </c>
       <c r="G11" s="0">
         <v>-0.093878014257114728</v>
@@ -3100,7 +3100,7 @@
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
       <c r="D15" s="0">
-        <v>-0.97270402250639176</v>
+        <v>-0.97270402250639187</v>
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="0">
@@ -3246,19 +3246,19 @@
         <v>1.6620449477919657</v>
       </c>
       <c r="D5" s="0">
-        <v>0.013224219881426013</v>
+        <v>0.013224219881425988</v>
       </c>
       <c r="E5" s="0">
         <v>1.0947566673641709</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0087911081952661181</v>
+        <v>0.0087911081952661355</v>
       </c>
       <c r="G5" s="0">
         <v>2.7595444777953633</v>
       </c>
       <c r="H5" s="0">
-        <v>0.15216591100596835</v>
+        <v>0.15216591100594631</v>
       </c>
     </row>
     <row r="6">
@@ -3272,19 +3272,19 @@
         <v>28.521101010743301</v>
       </c>
       <c r="D6" s="0">
-        <v>0.52600335132648091</v>
+        <v>0.52600335132648057</v>
       </c>
       <c r="E6" s="0">
         <v>25.625732746418773</v>
       </c>
       <c r="F6" s="0">
-        <v>0.30993094704169699</v>
+        <v>0.3099309470416976</v>
       </c>
       <c r="G6" s="0">
         <v>40.491138357375227</v>
       </c>
       <c r="H6" s="0">
-        <v>3.2040174110713324</v>
+        <v>3.2040174110708657</v>
       </c>
     </row>
     <row r="7">
@@ -3298,19 +3298,19 @@
         <v>2017.6839216288795</v>
       </c>
       <c r="D7" s="0">
-        <v>0.59077205787462739</v>
+        <v>0.5907720578746275</v>
       </c>
       <c r="E7" s="0">
         <v>2030.0770758762628</v>
       </c>
       <c r="F7" s="0">
-        <v>0.15318281761045005</v>
+        <v>0.15318281761045027</v>
       </c>
       <c r="G7" s="0">
         <v>2055.0684519356873</v>
       </c>
       <c r="H7" s="0">
-        <v>0.73309305680889614</v>
+        <v>0.73309305680884684</v>
       </c>
     </row>
     <row r="8">
@@ -3370,7 +3370,7 @@
         <v>-0.0046586835905360058</v>
       </c>
       <c r="F10" s="0">
-        <v>0.015868020914605957</v>
+        <v>0.01586802091460596</v>
       </c>
       <c r="G10" s="0">
         <v>-0.10699348518290286</v>
@@ -3390,13 +3390,13 @@
         <v>0.061297589930489949</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584826</v>
+        <v>0.23290259235584918</v>
       </c>
       <c r="E11" s="0">
         <v>0.12853962895434989</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134112</v>
+        <v>0.11320617940134081</v>
       </c>
       <c r="G11" s="0">
         <v>-0.083027973214996109</v>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="0">
-        <v>-1.8303362553570341</v>
+        <v>-1.8303362553570339</v>
       </c>
       <c r="G15" s="0"/>
       <c r="H15" s="0">
@@ -3699,13 +3699,13 @@
         <v>1.6896480892875236</v>
       </c>
       <c r="D5" s="0">
-        <v>0.022908700469128591</v>
+        <v>0.022908700469128622</v>
       </c>
       <c r="E5" s="0">
         <v>1.0861729806504752</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0099352921811854712</v>
+        <v>0.0099352921811854816</v>
       </c>
       <c r="G5" s="0">
         <v>2.4636835290448733</v>
@@ -3725,13 +3725,13 @@
         <v>29.402727453591979</v>
       </c>
       <c r="D6" s="0">
-        <v>0.42964820474895782</v>
+        <v>0.42964820474895854</v>
       </c>
       <c r="E6" s="0">
         <v>26.18968329470048</v>
       </c>
       <c r="F6" s="0">
-        <v>0.27731720574676494</v>
+        <v>0.27731720574676527</v>
       </c>
       <c r="G6" s="0">
         <v>47.481340280257129</v>
@@ -3751,7 +3751,7 @@
         <v>2015.4124672139451</v>
       </c>
       <c r="D7" s="0">
-        <v>0.35695865848059533</v>
+        <v>0.35695865848059549</v>
       </c>
       <c r="E7" s="0">
         <v>2029.2583242869478</v>
@@ -3843,13 +3843,13 @@
         <v>-0.28476207493962136</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584826</v>
+        <v>0.23290259235584918</v>
       </c>
       <c r="E11" s="0">
         <v>-0.18162463427241704</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134112</v>
+        <v>0.11320617940134081</v>
       </c>
       <c r="G11" s="0">
         <v>0.21481644926089416</v>
@@ -4071,19 +4071,19 @@
         <v>1.6894768100060835</v>
       </c>
       <c r="D5" s="0">
-        <v>0.023591287567835122</v>
+        <v>0.023591287567835118</v>
       </c>
       <c r="E5" s="0">
         <v>1.0861642315894984</v>
       </c>
       <c r="F5" s="0">
-        <v>0.010232306245804993</v>
+        <v>0.010232306245804996</v>
       </c>
       <c r="G5" s="0">
         <v>2.4588205478764813</v>
       </c>
       <c r="H5" s="0">
-        <v>0.02795617165881522</v>
+        <v>0.027956171658815504</v>
       </c>
     </row>
     <row r="6">
@@ -4103,13 +4103,13 @@
         <v>26.191282804847177</v>
       </c>
       <c r="F6" s="0">
-        <v>0.28566788045886177</v>
+        <v>0.28566788045886188</v>
       </c>
       <c r="G6" s="0">
         <v>47.611998006356629</v>
       </c>
       <c r="H6" s="0">
-        <v>0.70741041590772336</v>
+        <v>0.70741041590773046</v>
       </c>
     </row>
     <row r="7">
@@ -4123,19 +4123,19 @@
         <v>2015.4110769527874</v>
       </c>
       <c r="D7" s="0">
-        <v>0.36735260142182247</v>
+        <v>0.36735260142182269</v>
       </c>
       <c r="E7" s="0">
         <v>2029.2596259629372</v>
       </c>
       <c r="F7" s="0">
-        <v>0.16406460622795271</v>
+        <v>0.16406460622795263</v>
       </c>
       <c r="G7" s="0">
         <v>2057.2329636535314</v>
       </c>
       <c r="H7" s="0">
-        <v>0.47464753140315552</v>
+        <v>0.47464753140315841</v>
       </c>
     </row>
     <row r="8">
@@ -4189,7 +4189,7 @@
         <v>0.020541538643398471</v>
       </c>
       <c r="D10" s="0">
-        <v>0.11590032501488888</v>
+        <v>0.11590032501488885</v>
       </c>
       <c r="E10" s="0">
         <v>-0.0070424147788101799</v>
@@ -4215,13 +4215,13 @@
         <v>-0.27897249464888318</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584826</v>
+        <v>0.23290259235584918</v>
       </c>
       <c r="E11" s="0">
         <v>-0.17796833731907924</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134112</v>
+        <v>0.11320617940134081</v>
       </c>
       <c r="G11" s="0">
         <v>0.21410256027036212</v>
@@ -4297,7 +4297,7 @@
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
       <c r="D15" s="0">
-        <v>-1.4522442085844351</v>
+        <v>-1.4522442085844354</v>
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="0">
@@ -4443,19 +4443,19 @@
         <v>1.6891557068319809</v>
       </c>
       <c r="D5" s="0">
-        <v>0.024330437883264829</v>
+        <v>0.024330437883264857</v>
       </c>
       <c r="E5" s="0">
         <v>1.0861179706930337</v>
       </c>
       <c r="F5" s="0">
-        <v>0.010555908553709853</v>
+        <v>0.01055590855370989</v>
       </c>
       <c r="G5" s="0">
         <v>2.4538030293796544</v>
       </c>
       <c r="H5" s="0">
-        <v>0.028854638185704919</v>
+        <v>0.028854638185704842</v>
       </c>
     </row>
     <row r="6">
@@ -4469,19 +4469,19 @@
         <v>29.418082988295552</v>
       </c>
       <c r="D6" s="0">
-        <v>0.45676296252619875</v>
+        <v>0.45676296252619925</v>
       </c>
       <c r="E6" s="0">
         <v>26.194148882388969</v>
       </c>
       <c r="F6" s="0">
-        <v>0.29479763863499925</v>
+        <v>0.29479763863500036</v>
       </c>
       <c r="G6" s="0">
         <v>47.747921639770951</v>
       </c>
       <c r="H6" s="0">
-        <v>0.73566198408946071</v>
+        <v>0.73566198408945871</v>
       </c>
     </row>
     <row r="7">
@@ -4495,19 +4495,19 @@
         <v>2015.407069411106</v>
       </c>
       <c r="D7" s="0">
-        <v>0.37872564715215168</v>
+        <v>0.37872564715215196</v>
       </c>
       <c r="E7" s="0">
         <v>2029.2608234918544</v>
       </c>
       <c r="F7" s="0">
-        <v>0.16885530790421791</v>
+        <v>0.16885530790421788</v>
       </c>
       <c r="G7" s="0">
         <v>2057.2825167836017</v>
       </c>
       <c r="H7" s="0">
-        <v>0.49001041796986183</v>
+        <v>0.49001041796986139</v>
       </c>
     </row>
     <row r="8">
@@ -4567,7 +4567,7 @@
         <v>-0.0069930146707111174</v>
       </c>
       <c r="F10" s="0">
-        <v>0.034990623000595078</v>
+        <v>0.034990623000595085</v>
       </c>
       <c r="G10" s="0">
         <v>0.029245565269330642</v>
@@ -4587,13 +4587,13 @@
         <v>-0.27263400575483843</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584826</v>
+        <v>0.23290259235584918</v>
       </c>
       <c r="E11" s="0">
         <v>-0.17405765895195913</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134112</v>
+        <v>0.11320617940134081</v>
       </c>
       <c r="G11" s="0">
         <v>0.21275329323958658</v>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="0">
-        <v>-1.9106363055250828</v>
+        <v>-1.9106363055250826</v>
       </c>
       <c r="G15" s="0"/>
       <c r="H15" s="0">
@@ -4815,19 +4815,19 @@
         <v>1.6885701793906001</v>
       </c>
       <c r="D5" s="0">
-        <v>0.025127643604378084</v>
+        <v>0.025127643604378108</v>
       </c>
       <c r="E5" s="0">
         <v>1.0859975874233851</v>
       </c>
       <c r="F5" s="0">
-        <v>0.010908183676013788</v>
+        <v>0.010908183676013776</v>
       </c>
       <c r="G5" s="0">
         <v>2.449355241630859</v>
       </c>
       <c r="H5" s="0">
-        <v>0.030003521874207822</v>
+        <v>0.03000352187420759</v>
       </c>
     </row>
     <row r="6">
@@ -4841,19 +4841,19 @@
         <v>29.434922773295163</v>
       </c>
       <c r="D6" s="0">
-        <v>0.47236966547529352</v>
+        <v>0.47236966547529446</v>
       </c>
       <c r="E6" s="0">
         <v>26.199444060831024</v>
       </c>
       <c r="F6" s="0">
-        <v>0.30480029249117552</v>
+        <v>0.3048002924911753</v>
       </c>
       <c r="G6" s="0">
         <v>47.869323038419864</v>
       </c>
       <c r="H6" s="0">
-        <v>0.77061062717978746</v>
+        <v>0.77061062717978213</v>
       </c>
     </row>
     <row r="7">
@@ -4867,19 +4867,19 @@
         <v>2015.3982795653592</v>
       </c>
       <c r="D7" s="0">
-        <v>0.39120994145197441</v>
+        <v>0.39120994145197507</v>
       </c>
       <c r="E7" s="0">
         <v>2029.2616554555318</v>
       </c>
       <c r="F7" s="0">
-        <v>0.17408719076627938</v>
+        <v>0.17408719076627929</v>
       </c>
       <c r="G7" s="0">
         <v>2057.3256920753574</v>
       </c>
       <c r="H7" s="0">
-        <v>0.50823787784044738</v>
+        <v>0.50823787784044427</v>
       </c>
     </row>
     <row r="8">
@@ -4959,13 +4959,13 @@
         <v>-0.26578735411317211</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584826</v>
+        <v>0.23290259235584918</v>
       </c>
       <c r="E11" s="0">
         <v>-0.16993815955597569</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134112</v>
+        <v>0.11320617940134081</v>
       </c>
       <c r="G11" s="0">
         <v>0.21045446681037561</v>
@@ -5187,19 +5187,19 @@
         <v>1.687535171424617</v>
       </c>
       <c r="D5" s="0">
-        <v>0.025978554654497887</v>
+        <v>0.025978554654497828</v>
       </c>
       <c r="E5" s="0">
         <v>1.0857565055392717</v>
       </c>
       <c r="F5" s="0">
-        <v>0.011292379669798368</v>
+        <v>0.011292379669798349</v>
       </c>
       <c r="G5" s="0">
         <v>2.4479147505383496</v>
       </c>
       <c r="H5" s="0">
-        <v>0.031521202588153177</v>
+        <v>0.031521202588152823</v>
       </c>
     </row>
     <row r="6">
@@ -5213,19 +5213,19 @@
         <v>29.464096546632351</v>
       </c>
       <c r="D6" s="0">
-        <v>0.4895971476351153</v>
+        <v>0.48959714763511375</v>
       </c>
       <c r="E6" s="0">
         <v>26.208777251810776</v>
       </c>
       <c r="F6" s="0">
-        <v>0.31582312490528519</v>
+        <v>0.31582312490528469</v>
       </c>
       <c r="G6" s="0">
         <v>47.90821149705053</v>
       </c>
       <c r="H6" s="0">
-        <v>0.8130880216416887</v>
+        <v>0.81308802164167981</v>
       </c>
     </row>
     <row r="7">
@@ -5239,7 +5239,7 @@
         <v>2015.3810037229666</v>
       </c>
       <c r="D7" s="0">
-        <v>0.40494272684204252</v>
+        <v>0.40494272684204147</v>
       </c>
       <c r="E7" s="0">
         <v>2029.2618503121867</v>
@@ -5251,7 +5251,7 @@
         <v>2057.3386760901299</v>
       </c>
       <c r="H7" s="0">
-        <v>0.52927064214932507</v>
+        <v>0.52927064214932096</v>
       </c>
     </row>
     <row r="8">
@@ -5311,7 +5311,7 @@
         <v>-0.0066710833457914731</v>
       </c>
       <c r="F10" s="0">
-        <v>0.037432415722906141</v>
+        <v>0.037432415722906148</v>
       </c>
       <c r="G10" s="0">
         <v>0.032347642473455229</v>
@@ -5331,13 +5331,13 @@
         <v>-0.25810639840834426</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584826</v>
+        <v>0.23290259235584918</v>
       </c>
       <c r="E11" s="0">
         <v>-0.16538785153650792</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134112</v>
+        <v>0.11320617940134081</v>
       </c>
       <c r="G11" s="0">
         <v>0.20614838454446271</v>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="0">
-        <v>-1.8750524957634704</v>
+        <v>-1.8750524957634702</v>
       </c>
       <c r="G15" s="0"/>
       <c r="H15" s="0">
@@ -5559,19 +5559,19 @@
         <v>1.6857390495736435</v>
       </c>
       <c r="D5" s="0">
-        <v>0.026864869650475989</v>
+        <v>0.026864869650476065</v>
       </c>
       <c r="E5" s="0">
         <v>1.08525190005951</v>
       </c>
       <c r="F5" s="0">
-        <v>0.011700854902212888</v>
+        <v>0.011700854902212886</v>
       </c>
       <c r="G5" s="0">
         <v>2.4527329069832104</v>
       </c>
       <c r="H5" s="0">
-        <v>0.033411175450397061</v>
+        <v>0.033411175450397131</v>
       </c>
     </row>
     <row r="6">
@@ -5585,19 +5585,19 @@
         <v>29.514877253399511</v>
       </c>
       <c r="D6" s="0">
-        <v>0.50859898466406817</v>
+        <v>0.50859898466407005</v>
       </c>
       <c r="E6" s="0">
         <v>26.226908045103738</v>
       </c>
       <c r="F6" s="0">
-        <v>0.32779981061744329</v>
+        <v>0.32779981061744334</v>
       </c>
       <c r="G6" s="0">
         <v>47.773494041800433</v>
       </c>
       <c r="H6" s="0">
-        <v>0.85949447990254302</v>
+        <v>0.85949447990254513</v>
       </c>
     </row>
     <row r="7">
@@ -5611,7 +5611,7 @@
         <v>2015.3480653037539</v>
       </c>
       <c r="D7" s="0">
-        <v>0.42004053271002323</v>
+        <v>0.42004053271002378</v>
       </c>
       <c r="E7" s="0">
         <v>2029.2603838994928</v>
@@ -5623,7 +5623,7 @@
         <v>2057.2917991967151</v>
       </c>
       <c r="H7" s="0">
-        <v>0.55019943706621155</v>
+        <v>0.55019943706621133</v>
       </c>
     </row>
     <row r="8">
@@ -5703,13 +5703,13 @@
         <v>-0.24933458489060456</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584826</v>
+        <v>0.23290259235584918</v>
       </c>
       <c r="E11" s="0">
         <v>-0.16022765386733795</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134112</v>
+        <v>0.11320617940134081</v>
       </c>
       <c r="G11" s="0">
         <v>0.19920705346549994</v>
@@ -5931,19 +5931,19 @@
         <v>1.6826655803386825</v>
       </c>
       <c r="D5" s="0">
-        <v>0.027741236702698176</v>
+        <v>0.027741236702698222</v>
       </c>
       <c r="E5" s="0">
         <v>1.0842622095177434</v>
       </c>
       <c r="F5" s="0">
-        <v>0.012119276769368935</v>
+        <v>0.012119276769368954</v>
       </c>
       <c r="G5" s="0">
         <v>2.4792710700045593</v>
       </c>
       <c r="H5" s="0">
-        <v>0.034637345574191798</v>
+        <v>0.034637345574192145</v>
       </c>
     </row>
     <row r="6">
@@ -5957,19 +5957,19 @@
         <v>29.602991482039275</v>
       </c>
       <c r="D6" s="0">
-        <v>0.5294071463729112</v>
+        <v>0.52940714637291297</v>
       </c>
       <c r="E6" s="0">
         <v>26.261226667871384</v>
       </c>
       <c r="F6" s="0">
-        <v>0.34058415076493004</v>
+        <v>0.34058415076493065</v>
       </c>
       <c r="G6" s="0">
         <v>47.047664200021742</v>
       </c>
       <c r="H6" s="0">
-        <v>0.86554784638920468</v>
+        <v>0.865547846389213</v>
       </c>
     </row>
     <row r="7">
@@ -5983,19 +5983,19 @@
         <v>2015.2872660161784</v>
       </c>
       <c r="D7" s="0">
-        <v>0.43655745596215834</v>
+        <v>0.43655745596215917</v>
       </c>
       <c r="E7" s="0">
         <v>2029.2556902390324</v>
       </c>
       <c r="F7" s="0">
-        <v>0.19230687684498704</v>
+        <v>0.19230687684498701</v>
       </c>
       <c r="G7" s="0">
         <v>2057.0518139220403</v>
       </c>
       <c r="H7" s="0">
-        <v>0.54404737453048424</v>
+        <v>0.54404737453048824</v>
       </c>
     </row>
     <row r="8">
@@ -6075,13 +6075,13 @@
         <v>-0.23877265004584558</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23290259235584826</v>
+        <v>0.23290259235584918</v>
       </c>
       <c r="E11" s="0">
         <v>-0.15419254318658915</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11320617940134112</v>
+        <v>0.11320617940134081</v>
       </c>
       <c r="G11" s="0">
         <v>0.18906927606457202</v>
